--- a/tradept/Excel/Localization/Main/english/S设施列表_Buildings_hotfix.xlsx
+++ b/tradept/Excel/Localization/Main/english/S设施列表_Buildings_hotfix.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Xargs01\Downloads\trasl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="f:\Users\isyuricunha\Documents\GitHub\sands-of-salzaar-game-translation\tradept\Excel\Localization\Main\english\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE5B417E-DA48-446E-B437-A4D36A7DF843}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95157207-6C3A-4275-941E-C56ED7E3EB89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10245" yWindow="0" windowWidth="10245" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="main" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="870" uniqueCount="843">
   <si>
     <t>设施ID_BuildingID</t>
   </si>
@@ -1578,991 +1578,988 @@
     <t>占用30人口,允许招募[[imp:蛮牛开山射手]]。</t>
   </si>
   <si>
-    <t>Granja pequeña</t>
-  </si>
-  <si>
-    <t>Granja</t>
-  </si>
-  <si>
-    <t>Granja grande</t>
-  </si>
-  <si>
-    <t>Perreras descuidadas</t>
-  </si>
-  <si>
-    <t>Menagería</t>
-  </si>
-  <si>
-    <t>Campamento de mercenarios</t>
-  </si>
-  <si>
-    <t>Gremio de Mercenarios</t>
-  </si>
-  <si>
-    <t>Herrero</t>
-  </si>
-  <si>
-    <t>Forja</t>
-  </si>
-  <si>
-    <t>Forja de élite</t>
-  </si>
-  <si>
-    <t>Centinela de madera</t>
-  </si>
-  <si>
-    <t>Centinela sólido</t>
-  </si>
-  <si>
-    <t>Torre de vigilancia</t>
-  </si>
-  <si>
     <t>Portal Arcano</t>
   </si>
   <si>
-    <t>Armería</t>
-  </si>
-  <si>
-    <t>Gran armería</t>
-  </si>
-  <si>
     <t>Arsenal Real</t>
   </si>
   <si>
-    <t>Establos de Cabaña</t>
-  </si>
-  <si>
-    <t>Establos de equitación</t>
-  </si>
-  <si>
-    <t>Establos del Sultán</t>
-  </si>
-  <si>
-    <t>Casa pequeña</t>
-  </si>
-  <si>
-    <t>Casa renovada</t>
-  </si>
-  <si>
-    <t>Domicilio Medio</t>
-  </si>
-  <si>
-    <t>Residencia grande</t>
-  </si>
-  <si>
-    <t>Campamento de Jade</t>
-  </si>
-  <si>
-    <t>Cabaña de Jade</t>
-  </si>
-  <si>
-    <t>Campamento minero</t>
-  </si>
-  <si>
-    <t>Cabaña minera</t>
-  </si>
-  <si>
-    <t>Campamento de tala de árboles</t>
-  </si>
-  <si>
-    <t>Cabaña de troncos</t>
-  </si>
-  <si>
-    <t>Puesto de intercambio</t>
-  </si>
-  <si>
-    <t>Depósito de comercio</t>
-  </si>
-  <si>
-    <t>Bazar de comercio</t>
-  </si>
-  <si>
-    <t>Aguas Dulces</t>
-  </si>
-  <si>
-    <t>El hogar de la naturaleza</t>
-  </si>
-  <si>
-    <t>Manantial de la cúspide</t>
-  </si>
-  <si>
-    <t>Pilar de Fuego</t>
-  </si>
-  <si>
-    <t>Ruinas destrozadas</t>
-  </si>
-  <si>
-    <t>Campamento de los aldeanos de Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de espías Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Asesinos Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Asesinos de Elite Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Cazadores de Dakn</t>
-  </si>
-  <si>
-    <t>Campamento del Maestro Asesino Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Iniciación Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de sacerdotes Dakn</t>
-  </si>
-  <si>
-    <t>Campamento del Sumo Sacerdote Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Ancianos Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Jóvenes Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Aprendices de Alquimia Dakn</t>
-  </si>
-  <si>
-    <t>Campamento del Alquimista Dakn</t>
-  </si>
-  <si>
-    <t>Campamento del Apóstol Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de la Sacerdotisa Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de la Alta Sacerdotisa Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de la Viuda Negra Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de la Viuda Negra Elite Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Agricultores Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de la Milicia Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de ballesteros de Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de arqueros de élite Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de arqueros con ballesta Nasir Ace</t>
-  </si>
-  <si>
-    <t>Campamento de Aprendices Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Novatos Caster Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de lanzadores Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Magos Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Altos Magos Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de los Ancianos Místicos de Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Sanadores Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de clérigos de Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Infantería Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de élite Nasir Spearman</t>
-  </si>
-  <si>
-    <t>Campamento de Lanceros Pesados Nasir</t>
-  </si>
-  <si>
-    <t>Campamento Nasir Lancer</t>
-  </si>
-  <si>
-    <t>Campamento Nasir Gallant</t>
-  </si>
-  <si>
-    <t>Campamento Nasir Heavy Gallant</t>
-  </si>
-  <si>
-    <t>Campamento de Jinete Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Caballería Pesada Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de la Guardia de Caballería Nasir</t>
-  </si>
-  <si>
-    <t>Campamento del Común Jueves</t>
-  </si>
-  <si>
-    <t>Campamento de Héroes del Jueves</t>
-  </si>
-  <si>
-    <t>Campamento de guerreros de Thur</t>
-  </si>
-  <si>
-    <t>Campamento de Skirmishers de Thur</t>
-  </si>
-  <si>
-    <t>Campamento de Infantería Pesada de Thur</t>
-  </si>
-  <si>
-    <t>Campamento de Infantería Blindada de Thur</t>
-  </si>
-  <si>
-    <t>Campamento de Sargento Thur de élite</t>
-  </si>
-  <si>
-    <t>Campamento del Marauder de Jueves</t>
-  </si>
-  <si>
-    <t>Campamento de Merodeadores Armados del Jueves</t>
-  </si>
-  <si>
-    <t>Campamento del Berserker de Thur</t>
-  </si>
-  <si>
-    <t>Campamento del Calenturiento de la Guerra</t>
-  </si>
-  <si>
-    <t>Campamento del cazador del jueves</t>
-  </si>
-  <si>
-    <t>Campamento de tiro con arco de Thur</t>
-  </si>
-  <si>
-    <t>Campamento de Tiradores Thur</t>
-  </si>
-  <si>
-    <t>Campamento del Tirador Blindado de Jueves</t>
-  </si>
-  <si>
-    <t>Campamento de agricultores Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de pastores de Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Héroes Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Soldados Dhib Ashen</t>
-  </si>
-  <si>
-    <t>Campamento del Caballero Ashen Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Espadachines Dhib Ashen</t>
-  </si>
-  <si>
-    <t>Campamento de guerreros Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Guerreros Elite Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Maestros de Espada Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Espadachines Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de cazadores de Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de rastreo de Dhib</t>
-  </si>
-  <si>
-    <t>Campamento Dhib Tamer</t>
-  </si>
-  <si>
-    <t>Campamento de entrenamiento de élite de Dhib Beast</t>
-  </si>
-  <si>
-    <t>Campamento de Falconer Dhib</t>
-  </si>
-  <si>
-    <t>Campamento del Maestro de Bestias Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de los habitantes de Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Espadachines Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Guerreros Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Guerreros Akhal de Élite</t>
-  </si>
-  <si>
-    <t>Campamento Guerrero de la Tormenta Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería de Camellos Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería de Camellos Akhal de Élite</t>
-  </si>
-  <si>
-    <t>Campamento del Engañador Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Jinetes Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de jinetes de élite de Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería Pesada Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería Pesada Elite Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería de la Tormenta de Akhal</t>
-  </si>
-  <si>
-    <t>Campamento Akhal Archrider</t>
-  </si>
-  <si>
-    <t>Campamento de Elite Akhal Archrider</t>
-  </si>
-  <si>
-    <t>Campamento de Arqueros Pesados Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Discípulos del Akhal Shaman</t>
-  </si>
-  <si>
-    <t>Campamento Akhal Shaman</t>
-  </si>
-  <si>
-    <t>Campamento Elite Akhal Shaman</t>
-  </si>
-  <si>
-    <t>Campamento del Profeta Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Clérigos Akhal</t>
-  </si>
-  <si>
-    <t>Tienda tribal</t>
-  </si>
-  <si>
-    <t>Puesto tribal</t>
-  </si>
-  <si>
-    <t>Fortaleza tribal</t>
-  </si>
-  <si>
     <t>Biblioteca</t>
   </si>
   <si>
     <t>Biblioteca Secreta</t>
   </si>
   <si>
-    <t>Biblioteca antigua</t>
-  </si>
-  <si>
-    <t>Campamento de Infantería Pesada Nasir</t>
-  </si>
-  <si>
-    <t>Campamento Nasir Longspearman</t>
-  </si>
-  <si>
-    <t>Campamento de Hoplitas Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Caballería de Asalto Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Tiro Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Tiradores Rápidos Nasir Swift</t>
-  </si>
-  <si>
-    <t>Campamento de herbolarios Nasir</t>
-  </si>
-  <si>
-    <t>Campamento de Acechadores Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de Lanzadores de Dardos Dakn</t>
-  </si>
-  <si>
-    <t>Campamento Dakn Bolt Thrower</t>
-  </si>
-  <si>
-    <t>Campamento de Tiradores de Espinas Dakn</t>
-  </si>
-  <si>
-    <t>Campamento del Bebedor de Veneno Dakn</t>
-  </si>
-  <si>
-    <t>Campamento del Envenenador Dakn</t>
-  </si>
-  <si>
-    <t>Campamento de jinetes de camellos Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de Jinetes Pesados Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería Ligera de Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de la Caballería de Lanza Akhal</t>
-  </si>
-  <si>
-    <t>Campamento de arqueros a caballo Akhal</t>
-  </si>
-  <si>
-    <t>Campamento del Akhal Reaver</t>
-  </si>
-  <si>
-    <t>Campamento Dhib Claymore</t>
-  </si>
-  <si>
-    <t>Campamento del Gran Espadachín Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Lanceros Dhib</t>
-  </si>
-  <si>
-    <t>Campamento de Dhib Halberdier</t>
-  </si>
-  <si>
-    <t>Campamento de Tramperos Dhib</t>
-  </si>
-  <si>
-    <t>Campamento Militante de Thur</t>
-  </si>
-  <si>
-    <t>Campamento del Gran Arquero</t>
-  </si>
-  <si>
-    <t>Campamento de Tiradores de Thur Ridge</t>
-  </si>
-  <si>
-    <t>Cultiva una pequeña cantidad de comida cada semana</t>
-  </si>
-  <si>
-    <t>Cultiva algo de comida cada semana</t>
-  </si>
-  <si>
-    <t>Cultiva una gran cantidad de alimentos cada semana</t>
-  </si>
-  <si>
-    <t>Encierra a las bestias en las perreras para entrenar y generar EXP de bestias. La EXP de bestias aumenta a medida que mejora el nivel de tu perrera</t>
-  </si>
-  <si>
-    <t>Recluta mercenarios en el Campamento de Mercenarios</t>
-  </si>
-  <si>
-    <t>Recluta mercenarios en el Campamento de Mercenarios por un costo un tercio menor</t>
-  </si>
-  <si>
-    <t>Repara cualquier pieza de equipo de nivel 1-7 aquí</t>
-  </si>
-  <si>
-    <t>Repara cualquier pieza de equipo de nivel 1-12 aquí</t>
-  </si>
-  <si>
-    <t>Repara cualquier pieza de equipo aquí y recluta ballestas</t>
-  </si>
-  <si>
-    <t>Proporciona una fuerza de patrulla básica para patrullar las tierras de los Sin Nombre</t>
-  </si>
-  <si>
-    <t>Proporciona una fuerza de patrulla más grande para patrullar las tierras de los Sin Nombre</t>
-  </si>
-  <si>
-    <t>Proporciona una fuerza de patrulla de élite para patrullar las tierras de los Sin Nombre</t>
-  </si>
-  <si>
-    <t>Te transporta a cualquier ciudad no hostil a través del desierto</t>
-  </si>
-  <si>
-    <t>Visita para obtener un aumento del 30% en la defensa para todas las tropas durante 7 días</t>
-  </si>
-  <si>
-    <t>Visita para obtener un aumento del 30% en la defensa para todas las tropas durante 10 días</t>
-  </si>
-  <si>
-    <t>Visita para obtener un aumento de ataque del +30% para todas las tropas durante 7 días</t>
-  </si>
-  <si>
-    <t>Visita para obtener un aumento de ataque del +30% para todas las tropas durante 10 días</t>
-  </si>
-  <si>
-    <t>Visita para obtener un aumento de velocidad de movimiento para todas las tropas durante 2 días</t>
-  </si>
-  <si>
-    <t>Visita para obtener un aumento de velocidad de movimiento para todas las tropas durante 3 días</t>
-  </si>
-  <si>
-    <t>Visita para obtener un aumento de velocidad de movimiento para todas las tropas durante 5 días</t>
-  </si>
-  <si>
-    <t>Aumenta el límite de población en 5</t>
-  </si>
-  <si>
-    <t>Aumenta el límite de población en 10</t>
-  </si>
-  <si>
-    <t>Aumenta el límite de población en 15</t>
-  </si>
-  <si>
-    <t>Aumenta el límite de población en 25</t>
-  </si>
-  <si>
-    <t>Usa 5 Población. Produce 5 Jade cada semana y otorga Prosperidad</t>
-  </si>
-  <si>
-    <t>Usa 15 Población. Produce 15 Jade cada semana y otorga Prosperidad</t>
-  </si>
-  <si>
-    <t>Usa 5 población. Produce 20 piedras de hierro cada semana</t>
-  </si>
-  <si>
-    <t>Usa 15 de población. Produce 50 piedra de hierro cada semana</t>
-  </si>
-  <si>
-    <t>Usa 5 población. Produce 20 madera cada semana</t>
-  </si>
-  <si>
-    <t>Usa 15 de población. Produce 50 de madera cada semana</t>
-  </si>
-  <si>
-    <t>Hasta 10 personas pueden trabajar aquí. Viene con 1 caravana</t>
-  </si>
-  <si>
-    <t>Hasta 15 personas pueden trabajar aquí. Viene con 2 caravanas</t>
-  </si>
-  <si>
-    <t>Hasta 30 personas pueden trabajar aquí. Viene con 3 caravanas</t>
-  </si>
-  <si>
-    <t>Activa 1 nivel de Recuperación de Combate, un beneficio temporal, en esta ubicación. Recuperación de Combate: Todas las tropas regeneran 5 puntos de salud por segundo durante la batalla</t>
-  </si>
-  <si>
-    <t>Activa 2 niveles de Recuperación de Combate, un aumento temporal, en esta ubicación</t>
-  </si>
-  <si>
-    <t>Activa 3 niveles de Recuperación de Combate, un aumento temporal, en esta ubicación</t>
-  </si>
-  <si>
-    <t>Activa 1 nivel de Ataque de Combate Mejorado, un aumento temporal, en esta ubicación</t>
-  </si>
-  <si>
-    <t>La leyenda cuenta que los visitantes a estas antiguas ruinas pueden entrar en un trance de ilusión. ¡Derrota estas malévolas ilusiones para descubrir tesoros ocultos!</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Aldeanos Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;espías Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Asesinos Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Asesinos Dakn de Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Asesinos Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Maestros Asesinos Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Iniciados Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Sacerdotes Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Altos Sacerdotes Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;ancianos Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Jóvenes Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Aprendices de Alquimia Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Alquimistas Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Apóstoles Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Sacerdotisas Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Altas Sacerdotisas Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Viudas Negras Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Elite Dakn Viudas Negras&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Granjeros Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Milicia de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Arqueros de ballesta Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Arqueros de ballesta Nasir de élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Arqueros de Ballesta Nasir Ace&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Aprendices de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Nasir Novice Casters&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Lanzadores Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Magos Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Nasir High Wizard&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Nasir Ancianos Místicos&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Sanadores Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Clerigos de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Infantería de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Espearmen de élite Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Lanceros Pesados Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Lanceros de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta a &lt;color=red&gt;Nasir Gallants&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Nasir Heavy Gallants&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Jinetes de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 de población. Recluta &lt;color=red&gt;Caballería Pesada de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 de población. Recluta &lt;color=red&gt;Guardia de Caballería Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Thur Commoners&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Thur Heroes&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Guerreros Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Thur Skirmishers&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Infantería Pesada de Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Infantería Blindada Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Sargentos Thur de Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Thur Marauders&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Thur Armados Merodeadores&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Thur Berserkers&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Thur Warmongers&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Cazadores Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Arqueros Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Tiradores Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Tiradores Blindados Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Granjeros Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;pastores de Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Héroes Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Soldados Dhib Ashen&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Caballeros Cenizos Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 de población. Recluta &lt;color=red&gt;Esgrimistas Dhib Ashen&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Guerreros Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Guerreros Dhib Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 de población. Recluta &lt;color=red&gt;Maestros de Espada Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Esgrimistas Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Cazadores Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Rastreadores Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Domadores de Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Entrenadores de Bestias Dhib de Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Cetreros Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Dhib Beastmasters&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Habitantes de Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Esgrimistas Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Akhal Warriors&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Guerreros Akhal Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Akhal Storm Warriors&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Caballería de Camellos Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;la Caballería de Élite de Camellos Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Akhal Tricksters&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Jinetes Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Jinetes Akhal Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Caballería Pesada Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Elite Akhal Heavy Cavalry&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Caballería de Tormenta Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Akhal Arqueros&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Arqueros Akhal Élite&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Akhal Arqueros Pesados&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Discípulos del Chamán Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Akhal Shamans&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Elite Akhal Shamans&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 50 Población. Recluta &lt;color=red&gt;Profetas de Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Clerigos de Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>El corazón administrativo del campamento donde se producen recursos cada semana. Recluta tropas básicas aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población; aprende a usar simples Máquinas Antiguas aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población; aprende aquí máquinas antiguas más avanzadas</t>
-  </si>
-  <si>
-    <t>Usa 40 Población; aprende aquí sobre Máquinas Antiguas más avanzadas</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta a &lt;color=red&gt;Nasir Gallants&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Infantería Pesada Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Lanceros de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Hoplitas de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Caballería de Asalto Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Tiradores de Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Tiradores Rápidos Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Sanadores Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Herbolarios Nasir&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Cazadores de Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Dakn Stalkers&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Lanzadores de Dardos Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Lanzadores de Rayos Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Tiradores de Espinas Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Bebedores de Veneno Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Envenenadores Dakn&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Jinetes de Camello Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Jinetes Pesados de Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Caballería Ligera Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Caballería de Lanza Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Arqueros a Caballo Akhal&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Akhal Reavers&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Dhib Claymores&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Esgrimistas Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 de población. Recluta &lt;color=red&gt;Lanceros Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Lanceros Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Cazadores Dhib&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Infantería Pesada Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 de población. Recluta &lt;color=red&gt;Infantería Blindada Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Militantes de Thur&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 20 Población. Recluta &lt;color=red&gt;Thur Gran Arquero&lt;/color&gt; aquí</t>
-  </si>
-  <si>
-    <t>Usa 30 Población. Recluta &lt;color=red&gt;Tirador de Thur Ridge&lt;/color&gt; aquí</t>
+    <t>Fazendinha</t>
+  </si>
+  <si>
+    <t>Fazenda</t>
+  </si>
+  <si>
+    <t>Fazenda Grande</t>
+  </si>
+  <si>
+    <t>Canis Negligenciados</t>
+  </si>
+  <si>
+    <t>Zoológico</t>
+  </si>
+  <si>
+    <t>Acampamento mercenário</t>
+  </si>
+  <si>
+    <t>Guilda Mercenária</t>
+  </si>
+  <si>
+    <t>ferreiro</t>
+  </si>
+  <si>
+    <t>Forjamento</t>
+  </si>
+  <si>
+    <t>forja de elite</t>
+  </si>
+  <si>
+    <t>sentinela de madeira</t>
+  </si>
+  <si>
+    <t>Sentinela Sólida</t>
+  </si>
+  <si>
+    <t>Torre de vigilância</t>
+  </si>
+  <si>
+    <t>Grande arsenal</t>
+  </si>
+  <si>
+    <t>Estábulos de cabine</t>
+  </si>
+  <si>
+    <t>picadeiros</t>
+  </si>
+  <si>
+    <t>Estábulos do Sultão</t>
+  </si>
+  <si>
+    <t>Casinha</t>
+  </si>
+  <si>
+    <t>Casa reformada</t>
+  </si>
+  <si>
+    <t>Endereço do meio</t>
+  </si>
+  <si>
+    <t>residência grande</t>
+  </si>
+  <si>
+    <t>Acampamento de Jade</t>
+  </si>
+  <si>
+    <t>Cabana Jade</t>
+  </si>
+  <si>
+    <t>Acampamento de mineração</t>
+  </si>
+  <si>
+    <t>Cabana de mineração</t>
+  </si>
+  <si>
+    <t>Acampamento de derrubada de árvores</t>
+  </si>
+  <si>
+    <t>cabana de madeira</t>
+  </si>
+  <si>
+    <t>entreposto comercial</t>
+  </si>
+  <si>
+    <t>Armazém comercial</t>
+  </si>
+  <si>
+    <t>Bazar comercial</t>
+  </si>
+  <si>
+    <t>Águas doces</t>
+  </si>
+  <si>
+    <t>casa da natureza</t>
+  </si>
+  <si>
+    <t>Cúspide da Primavera</t>
+  </si>
+  <si>
+    <t>Pilar de Fogo</t>
+  </si>
+  <si>
+    <t>Ruínas destruídas</t>
+  </si>
+  <si>
+    <t>Acampamento dos Aldeões de Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de espionagem Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Assassinos Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Assassinos de Elite Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Caçadores Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento do Mestre Assassino Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Iniciação Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento do Sacerdote Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento do Sumo Sacerdote Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Anciãos Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento Juvenil Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de Aprendizes de Alquimia Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento do Alquimista Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento do Apóstolo Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento da Sacerdotisa Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento da Alta Sacerdotisa Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento da Viúva Negra Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento Elite Dakn da Viúva Negra</t>
+  </si>
+  <si>
+    <t>Acampamento de agricultores de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento da Milícia Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de besteiros de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Arqueiros de Elite Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de arqueiro com besta Nasir Ace</t>
+  </si>
+  <si>
+    <t>Acampamento de trainees de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de novatos do lançador Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de arremessadores de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento do Mago Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento dos Altos Magos Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento dos Anciãos Místicos de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento do Curandeiro Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento do Clérigo Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Infantaria Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Elite Nasir Spearman</t>
+  </si>
+  <si>
+    <t>Acampamento de lanceiros pesados de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento Nasir Lanceiro</t>
+  </si>
+  <si>
+    <t>Acampamento Nasir Gallant</t>
+  </si>
+  <si>
+    <t>Acampamento Nasir Pesado Galante</t>
+  </si>
+  <si>
+    <t>Acampamento do Cavaleiro Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria Pesada de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento da Guarda de Cavalaria Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de quinta-feira comum</t>
+  </si>
+  <si>
+    <t>Quinta-feira Acampamento dos Heróis</t>
+  </si>
+  <si>
+    <t>Acampamento Guerreiro de Quinta</t>
+  </si>
+  <si>
+    <t>Acampamento de escaramuçadores de quinta-feira</t>
+  </si>
+  <si>
+    <t>Acampamento de infantaria pesada de quinta-feira</t>
+  </si>
+  <si>
+    <t>Acampamento de infantaria blindada de quinta</t>
+  </si>
+  <si>
+    <t>Sargento de elite Thur Camp</t>
+  </si>
+  <si>
+    <t>Quinta-feira Acampamento dos Saqueadores</t>
+  </si>
+  <si>
+    <t>Quinta-feira, acampamento de saqueadores armados</t>
+  </si>
+  <si>
+    <t>Acampamento Berserker de quinta-feira</t>
+  </si>
+  <si>
+    <t>Febre do Campo de Guerra</t>
+  </si>
+  <si>
+    <t>Quinta-feira Acampamento de Caçadores</t>
+  </si>
+  <si>
+    <t>Acampamento de tiro com arco de quinta</t>
+  </si>
+  <si>
+    <t>Quinta Acampamento de Atiradores</t>
+  </si>
+  <si>
+    <t>Quinta-feira, acampamento de atiradores blindados</t>
+  </si>
+  <si>
+    <t>Acampamento de agricultores de Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de pastores Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento Heroico Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento do Soldado Dhib Ashen</t>
+  </si>
+  <si>
+    <t>Acampamento do Cavaleiro Ashen Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento do Espadachim Dhib Ashen</t>
+  </si>
+  <si>
+    <t>Acampamento Guerreiro Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Guerreiros de Elite Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento do Mestre da Espada Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento do Espadachim Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de Caçadores Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de rastreamento Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento Dhib Tamer</t>
+  </si>
+  <si>
+    <t>Campo de treinamento de elite da besta Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento do Falcoeiro Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento do Mestre das Feras Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento dos Aldeões de Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento dos Espadachins Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento Guerreiro Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de guerreiros de elite Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento dos Guerreiros da Tempestade Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de cavalaria de camelos Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de cavalaria de camelos de elite Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento do Enganador Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavaleiros Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de cavaleiros de elite Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria Pesada Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria Pesada de Elite Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Cavalaria de Tempestade Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento Akhal Archrider</t>
+  </si>
+  <si>
+    <t>Acampamento de Elite Akhal Archrider</t>
+  </si>
+  <si>
+    <t>Acampamento de Arqueiro Pesado Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Discípulos Akhal Shaman</t>
+  </si>
+  <si>
+    <t>Acampamento Xamã Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Elite Akhal Xamã</t>
+  </si>
+  <si>
+    <t>Acampamento do Profeta Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de Clérigos Akhal</t>
+  </si>
+  <si>
+    <t>loja tribal</t>
+  </si>
+  <si>
+    <t>posto tribal</t>
+  </si>
+  <si>
+    <t>fortaleza tribal</t>
+  </si>
+  <si>
+    <t>biblioteca antiga</t>
+  </si>
+  <si>
+    <t>Acampamento de infantaria pesada de Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento Nasir Longspearman</t>
+  </si>
+  <si>
+    <t>Acampamento Hoplita Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de cavalaria de assalto de Nasir</t>
+  </si>
+  <si>
+    <t>Campo de tiro Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento de atiradores rápidos Nasir Swift</t>
+  </si>
+  <si>
+    <t>Acampamento de ervas Nasir</t>
+  </si>
+  <si>
+    <t>Acampamento Dakn Stalker</t>
+  </si>
+  <si>
+    <t>Acampamento de lançadores de dardos Dakn</t>
+  </si>
+  <si>
+    <t>Lançador de Bolt Camp Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de atiradores de espinhos de Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento dos bebedores de veneno de Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento do Envenenador de Dakn</t>
+  </si>
+  <si>
+    <t>Acampamento de jóquei de camelo Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de cavaleiros pesados de Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de cavalos leves Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento de cavalaria Akhal Lance</t>
+  </si>
+  <si>
+    <t>Acampamento de arqueiros a cavalo Akhal</t>
+  </si>
+  <si>
+    <t>Acampamento Akhal Reaver</t>
+  </si>
+  <si>
+    <t>Acampamento Dhib Claymore</t>
+  </si>
+  <si>
+    <t>Acampamento do Grande Espadachim Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de lanceiros de Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de alabardeiros Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento de caçadores Dhib</t>
+  </si>
+  <si>
+    <t>Acampamento Militante de Qui</t>
+  </si>
+  <si>
+    <t>Acampamento do Grande Arqueiro</t>
+  </si>
+  <si>
+    <t>Acampamento de rifles de Thur Ridge</t>
+  </si>
+  <si>
+    <t>Cultive uma pequena quantidade de comida por semana</t>
+  </si>
+  <si>
+    <t>Cultive um pouco de comida toda semana</t>
+  </si>
+  <si>
+    <t>Cultive uma grande quantidade de alimentos todas as semanas</t>
+  </si>
+  <si>
+    <t>Tranque feras em canis para treinar e gerar EXP de feras. Beast EXP aumenta conforme o nível do seu canil melhora</t>
+  </si>
+  <si>
+    <t>Recrute mercenários no Acampamento Mercenário</t>
+  </si>
+  <si>
+    <t>Recrute mercenários no Acampamento Mercenário por um terceiro custo menor</t>
+  </si>
+  <si>
+    <t>Repare qualquer peça de equipamento de nível 1 a 7 aqui</t>
+  </si>
+  <si>
+    <t>Repare qualquer peça de equipamento de nível 1 a 12 aqui</t>
+  </si>
+  <si>
+    <t>Repare qualquer equipamento aqui e recrute bestas</t>
+  </si>
+  <si>
+    <t>Fornece uma força de patrulha central para patrulhar as terras dos Inomináveis</t>
+  </si>
+  <si>
+    <t>Fornece uma força de patrulha maior para patrulhar as terras dos Inomináveis</t>
+  </si>
+  <si>
+    <t>Fornece uma força de patrulha de elite para patrulhar as terras dos Inomináveis</t>
+  </si>
+  <si>
+    <t>Transporta você para qualquer cidade não hostil através do deserto</t>
+  </si>
+  <si>
+    <t>Visite para obter um aumento de 30% na defesa de todas as tropas por 7 dias</t>
+  </si>
+  <si>
+    <t>Visite para obter um aumento de 30% na defesa de todas as tropas por 10 dias</t>
+  </si>
+  <si>
+    <t>Visite para obter um aumento de ataque de +30% para todas as tropas por 7 dias</t>
+  </si>
+  <si>
+    <t>Visite para obter um aumento de ataque de +30% para todas as tropas por 10 dias</t>
+  </si>
+  <si>
+    <t>Visite para obter um aumento de velocidade de movimento para todas as tropas por 2 dias</t>
+  </si>
+  <si>
+    <t>Visite para obter um aumento de velocidade de movimento para todas as tropas por 3 dias</t>
+  </si>
+  <si>
+    <t>Visite para obter um aumento de velocidade de movimento para todas as tropas por 5 dias</t>
+  </si>
+  <si>
+    <t>Aumentar o limite populacional em 5</t>
+  </si>
+  <si>
+    <t>Aumenta o limite populacional em 10</t>
+  </si>
+  <si>
+    <t>Aumenta o limite populacional em 15</t>
+  </si>
+  <si>
+    <t>Aumenta o limite populacional em 25</t>
+  </si>
+  <si>
+    <t>Use 5 População. Produz 5 Jade por semana e concede Prosperidade</t>
+  </si>
+  <si>
+    <t>Use 15 população. Produz 15 Jade por semana e concede Prosperidade</t>
+  </si>
+  <si>
+    <t>Use 5 população. Produza 20 pedras de ferro toda semana</t>
+  </si>
+  <si>
+    <t>Use 15 populações. Produza 50 pedras de ferro toda semana</t>
+  </si>
+  <si>
+    <t>Use 5 população. Produza 20 madeiras por semana</t>
+  </si>
+  <si>
+    <t>Use 15 populações. Produza 50 madeiras por semana</t>
+  </si>
+  <si>
+    <t>Até 10 pessoas podem trabalhar aqui. Acompanha 1 caravana</t>
+  </si>
+  <si>
+    <t>Até 15 pessoas podem trabalhar aqui. Acompanha 2 caravanas</t>
+  </si>
+  <si>
+    <t>Até 30 pessoas podem trabalhar aqui. Acompanha 3 caravanas</t>
+  </si>
+  <si>
+    <t>Ative 1 nível de Combat Recovery, um buff temporário, neste local. Recuperação de Combate: Todas as tropas regeneram 5 pontos de saúde por segundo durante a batalha</t>
+  </si>
+  <si>
+    <t>Ative 2 níveis de Recuperação de Combate, um aumento temporário, neste local</t>
+  </si>
+  <si>
+    <t>Ative 3 níveis de Recuperação de Combate, um aumento temporário, neste local</t>
+  </si>
+  <si>
+    <t>Ative 1 nível de Ataque de Combate Aprimorado, um aumento temporário, neste local</t>
+  </si>
+  <si>
+    <t>Diz a lenda que os visitantes destas ruínas antigas podem entrar num transe de ilusão. Derrote essas ilusões malignas para descobrir tesouros escondidos!</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Aldeões Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;espiões Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Dakn Assassins&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Elite Dakn Assassins&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Dakn Assassins&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Dakn Master Assassins&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Dakn Iniciados&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Sacerdotes Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Sumos Sacerdotes Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;anciãos Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Dakn Youth&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Aprendizes de Alquimia Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Alquimistas Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Apóstolos Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Sacerdotisas Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Altas Sacerdotisas Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Dakn Black Widows&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Viúvas Negras Elite Dakn&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Fazendeiros Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute a &lt;color=red&gt;Milícia Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Arqueiros Besta Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Arqueiros Besta de Elite Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Arqueiros Besta Nasir Ace&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Aprendizes de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Conjuradores Novatos Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Lançadores Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Nasir Mages&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Nasir High Wizard&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Anciãos Místicos Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Curandeiros Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Clérigos de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute a &lt;color=red&gt;Infantaria Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Espearmen de Elite Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Nasir Heavy Lancers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute os &lt;color=red&gt;Lanceiros de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Nasir Gallants&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Nasir Heavy Gallants&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Cavaleiros de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 habitantes. Recrute a &lt;color=red&gt;Cavalaria Pesada de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 habitantes. Recrute &lt;color=red&gt;Guarda de Cavalaria Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Thur Commoners&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Thur Heroes&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Thur Warriors&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Escaramuçadores de Thur&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Quinta Infantaria Pesada&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Infantaria Blindada Thur&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Sargentos de Elite Thur&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Thur Marauders&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Thur Saqueadores Armados&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Thur Berserkers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Thur Belicistas&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Thur Hunters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Qui Arqueiros&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Thur Sharpshooters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Atiradores Blindados de Thur&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Fazendeiros Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;pastores Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Heróis Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Soldados Dhib Ashen&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Cavaleiros Dhib Ash&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 habitantes. Recrute &lt;color=red&gt;Dhib Ashen Fencers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Guerreiros Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Guerreiros de Elite Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 habitantes. Recrute &lt;color=red&gt;Dhib Swordmasters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Esgrimistas Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Caçadores de Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;rastreadores Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Dhib Tamers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Treinadores de Elite Dhib Beast&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Dhib Falconers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Dhib Beastmasters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;residentes de Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Esgrimistas Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Guerreiros Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Guerreiros de Elite Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Guerreiros da Tempestade Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Cavalaria de Camelos Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Cavalaria de Camelos de Elite Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Akhal Tricksters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Akhal Riders&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Akhal Elite Riders&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Cavalaria Pesada Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Cavalaria Pesada de Elite Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute a &lt;color=red&gt;Cavalaria da Tempestade Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Arqueiros Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Arqueiros de Elite Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Arqueiros Pesados Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Discípulos do Xamã Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Akhal Shamans&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Xamãs Akhal de Elite&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 50 população. Recrute &lt;color=red&gt;Profetas Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Clérigos Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>O coração administrativo do acampamento onde os recursos são produzidos todas as semanas. Recrute tropas básicas aqui</t>
+  </si>
+  <si>
+    <t>Use 20 População; aprenda como usar máquinas antigas simples aqui</t>
+  </si>
+  <si>
+    <t>Use 30 População; aprenda máquinas antigas mais avançadas aqui</t>
+  </si>
+  <si>
+    <t>Use 40 População; aprenda aqui sobre máquinas antigas mais avançadas</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Nasir Gallants&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Infantaria Pesada Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute os &lt;color=red&gt;Lanceiros de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Hoplitas Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Cavalaria de Assalto Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute os &lt;color=red&gt;atiradores de elite de Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Nasir Fast Shooters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Curandeiros Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Herboristas Nasir&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Dakn Hunters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Dakn Stalkers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Dakn Dart Throwers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Dakn Lightning Casters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Dakn Thornshooters&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Dakn Poison Drinkers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Dakn Poisoners&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Akhal Camel Riders&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Akhal Heavy Riders&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Cavalaria Ligeira Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Cavalaria Lança Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Arqueiros Cavalos Akhal&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Akhal Reavers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Dhib Claymores&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Esgrimistas Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Dhib Lancers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Dhib Lancers&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Caçadores de Dhib&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Quinta Infantaria Pesada&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 habitantes. Recrute &lt;color=red&gt;Infantaria Blindada Thur&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Thur Militants&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 20 populações. Recrute &lt;color=red&gt;Qui Grande Arqueiro&lt;/color&gt; aqui</t>
+  </si>
+  <si>
+    <t>Use 30 população. Recrute &lt;color=red&gt;Thur Ridge Sharpshooter&lt;/color&gt; aqui</t>
   </si>
 </sst>
 </file>
@@ -2649,7 +2646,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -2947,11 +2944,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2:E1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="3" width="52" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="173.42578125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="90">
       <c r="A1" s="1" t="s">
@@ -2978,13 +2979,13 @@
         <v>6</v>
       </c>
       <c r="C2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="E2" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="60">
@@ -2995,13 +2996,13 @@
         <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="D3" s="4" t="s">
         <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="60">
@@ -3012,13 +3013,13 @@
         <v>12</v>
       </c>
       <c r="C4" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="D4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="E4" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="210">
@@ -3029,13 +3030,13 @@
         <v>15</v>
       </c>
       <c r="C5" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="D5" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E5" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="210">
@@ -3046,13 +3047,13 @@
         <v>18</v>
       </c>
       <c r="C6" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="75">
@@ -3063,13 +3064,13 @@
         <v>20</v>
       </c>
       <c r="C7" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="D7" s="4" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="120">
@@ -3080,13 +3081,13 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="D8" s="4" t="s">
         <v>24</v>
       </c>
       <c r="E8" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="60">
@@ -3097,13 +3098,13 @@
         <v>26</v>
       </c>
       <c r="C9" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="D9" s="4" t="s">
         <v>27</v>
       </c>
       <c r="E9" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="60">
@@ -3114,13 +3115,13 @@
         <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="120">
@@ -3131,13 +3132,13 @@
         <v>32</v>
       </c>
       <c r="C11" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="120">
@@ -3148,13 +3149,13 @@
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="D12" s="4" t="s">
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="120">
@@ -3165,13 +3166,13 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>39</v>
       </c>
       <c r="E13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="120">
@@ -3182,13 +3183,13 @@
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>42</v>
       </c>
       <c r="E14" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="135">
@@ -3199,13 +3200,13 @@
         <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>528</v>
+        <v>515</v>
       </c>
       <c r="D15" s="4" t="s">
         <v>45</v>
       </c>
       <c r="E15" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="165">
@@ -3216,13 +3217,13 @@
         <v>47</v>
       </c>
       <c r="C16" t="s">
-        <v>529</v>
+        <v>54</v>
       </c>
       <c r="D16" s="4" t="s">
         <v>48</v>
       </c>
       <c r="E16" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="165">
@@ -3233,13 +3234,13 @@
         <v>50</v>
       </c>
       <c r="C17" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="D17" s="4" t="s">
         <v>51</v>
       </c>
       <c r="E17" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="165">
@@ -3256,7 +3257,7 @@
         <v>55</v>
       </c>
       <c r="E18" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="165">
@@ -3267,13 +3268,13 @@
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>531</v>
+        <v>516</v>
       </c>
       <c r="D19" s="4" t="s">
         <v>58</v>
       </c>
       <c r="E19" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="135">
@@ -3284,13 +3285,13 @@
         <v>60</v>
       </c>
       <c r="C20" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>61</v>
       </c>
       <c r="E20" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="135">
@@ -3301,13 +3302,13 @@
         <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>64</v>
       </c>
       <c r="E21" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="135">
@@ -3318,13 +3319,13 @@
         <v>66</v>
       </c>
       <c r="C22" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="D22" s="4" t="s">
         <v>67</v>
       </c>
       <c r="E22" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="45">
@@ -3335,13 +3336,13 @@
         <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="D23" s="4" t="s">
         <v>70</v>
       </c>
       <c r="E23" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45">
@@ -3352,13 +3353,13 @@
         <v>72</v>
       </c>
       <c r="C24" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="D24" s="4" t="s">
         <v>73</v>
       </c>
       <c r="E24" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
     </row>
     <row r="25" spans="1:5" ht="45">
@@ -3369,13 +3370,13 @@
         <v>75</v>
       </c>
       <c r="C25" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="D25" s="4" t="s">
         <v>76</v>
       </c>
       <c r="E25" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="60">
@@ -3386,13 +3387,13 @@
         <v>78</v>
       </c>
       <c r="C26" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>79</v>
       </c>
       <c r="E26" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="105">
@@ -3403,13 +3404,13 @@
         <v>81</v>
       </c>
       <c r="C27" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="D27" s="4" t="s">
         <v>82</v>
       </c>
       <c r="E27" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105">
@@ -3420,13 +3421,13 @@
         <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>85</v>
       </c>
       <c r="E28" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="75">
@@ -3437,13 +3438,13 @@
         <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="D29" s="4" t="s">
         <v>88</v>
       </c>
       <c r="E29" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
     </row>
     <row r="30" spans="1:5" ht="75">
@@ -3454,13 +3455,13 @@
         <v>90</v>
       </c>
       <c r="C30" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="D30" s="4" t="s">
         <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="75">
@@ -3471,13 +3472,13 @@
         <v>93</v>
       </c>
       <c r="C31" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="D31" s="4" t="s">
         <v>94</v>
       </c>
       <c r="E31" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="75">
@@ -3488,13 +3489,13 @@
         <v>96</v>
       </c>
       <c r="C32" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="D32" s="4" t="s">
         <v>97</v>
       </c>
       <c r="E32" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="120">
@@ -3505,13 +3506,13 @@
         <v>99</v>
       </c>
       <c r="C33" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="D33" s="4" t="s">
         <v>100</v>
       </c>
       <c r="E33" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
     </row>
     <row r="34" spans="1:5" ht="120">
@@ -3522,13 +3523,13 @@
         <v>102</v>
       </c>
       <c r="C34" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="D34" s="4" t="s">
         <v>103</v>
       </c>
       <c r="E34" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="120">
@@ -3539,13 +3540,13 @@
         <v>105</v>
       </c>
       <c r="C35" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="D35" s="4" t="s">
         <v>106</v>
       </c>
       <c r="E35" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="165">
@@ -3556,13 +3557,13 @@
         <v>108</v>
       </c>
       <c r="C36" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="D36" s="4" t="s">
         <v>109</v>
       </c>
       <c r="E36" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="105">
@@ -3573,13 +3574,13 @@
         <v>111</v>
       </c>
       <c r="C37" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="D37" s="4" t="s">
         <v>112</v>
       </c>
       <c r="E37" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="105">
@@ -3590,13 +3591,13 @@
         <v>114</v>
       </c>
       <c r="C38" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="D38" s="4" t="s">
         <v>115</v>
       </c>
       <c r="E38" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="120">
@@ -3607,13 +3608,13 @@
         <v>117</v>
       </c>
       <c r="C39" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="D39" s="4" t="s">
         <v>118</v>
       </c>
       <c r="E39" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="255">
@@ -3624,13 +3625,13 @@
         <v>120</v>
       </c>
       <c r="C40" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="D40" s="4" t="s">
         <v>121</v>
       </c>
       <c r="E40" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45">
@@ -3641,13 +3642,13 @@
         <v>123</v>
       </c>
       <c r="C41" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="D41" t="s">
         <v>124</v>
       </c>
       <c r="E41" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="45">
@@ -3658,13 +3659,13 @@
         <v>126</v>
       </c>
       <c r="C42" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D42" t="s">
         <v>127</v>
       </c>
       <c r="E42" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="45">
@@ -3675,13 +3676,13 @@
         <v>129</v>
       </c>
       <c r="C43" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="D43" t="s">
         <v>130</v>
       </c>
       <c r="E43" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="45">
@@ -3692,13 +3693,13 @@
         <v>132</v>
       </c>
       <c r="C44" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="D44" t="s">
         <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="45">
@@ -3709,13 +3710,13 @@
         <v>135</v>
       </c>
       <c r="C45" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D45" t="s">
         <v>136</v>
       </c>
       <c r="E45" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="45">
@@ -3726,13 +3727,13 @@
         <v>138</v>
       </c>
       <c r="C46" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="D46" t="s">
         <v>139</v>
       </c>
       <c r="E46" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="45">
@@ -3743,13 +3744,13 @@
         <v>141</v>
       </c>
       <c r="C47" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="D47" t="s">
         <v>142</v>
       </c>
       <c r="E47" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45">
@@ -3760,13 +3761,13 @@
         <v>144</v>
       </c>
       <c r="C48" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="D48" t="s">
         <v>145</v>
       </c>
       <c r="E48" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45">
@@ -3777,13 +3778,13 @@
         <v>147</v>
       </c>
       <c r="C49" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="D49" t="s">
         <v>148</v>
       </c>
       <c r="E49" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45">
@@ -3794,13 +3795,13 @@
         <v>150</v>
       </c>
       <c r="C50" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="D50" t="s">
         <v>151</v>
       </c>
       <c r="E50" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="45">
@@ -3811,13 +3812,13 @@
         <v>153</v>
       </c>
       <c r="C51" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="D51" t="s">
         <v>154</v>
       </c>
       <c r="E51" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="60">
@@ -3828,13 +3829,13 @@
         <v>156</v>
       </c>
       <c r="C52" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="D52" t="s">
         <v>157</v>
       </c>
       <c r="E52" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="45">
@@ -3845,13 +3846,13 @@
         <v>159</v>
       </c>
       <c r="C53" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D53" t="s">
         <v>160</v>
       </c>
       <c r="E53" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="45">
@@ -3862,13 +3863,13 @@
         <v>162</v>
       </c>
       <c r="C54" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="D54" t="s">
         <v>163</v>
       </c>
       <c r="E54" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="45">
@@ -3879,13 +3880,13 @@
         <v>165</v>
       </c>
       <c r="C55" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="D55" t="s">
         <v>166</v>
       </c>
       <c r="E55" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="60">
@@ -3896,13 +3897,13 @@
         <v>168</v>
       </c>
       <c r="C56" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="D56" t="s">
         <v>169</v>
       </c>
       <c r="E56" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="45">
@@ -3913,13 +3914,13 @@
         <v>171</v>
       </c>
       <c r="C57" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="D57" t="s">
         <v>172</v>
       </c>
       <c r="E57" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="60">
@@ -3930,13 +3931,13 @@
         <v>174</v>
       </c>
       <c r="C58" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="D58" t="s">
         <v>175</v>
       </c>
       <c r="E58" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="45">
@@ -3947,13 +3948,13 @@
         <v>177</v>
       </c>
       <c r="C59" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="D59" t="s">
         <v>178</v>
       </c>
       <c r="E59" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="45">
@@ -3964,13 +3965,13 @@
         <v>180</v>
       </c>
       <c r="C60" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="D60" t="s">
         <v>181</v>
       </c>
       <c r="E60" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="45">
@@ -3981,13 +3982,13 @@
         <v>183</v>
       </c>
       <c r="C61" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="D61" t="s">
         <v>184</v>
       </c>
       <c r="E61" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="45">
@@ -3998,13 +3999,13 @@
         <v>186</v>
       </c>
       <c r="C62" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="D62" t="s">
         <v>187</v>
       </c>
       <c r="E62" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="45">
@@ -4015,13 +4016,13 @@
         <v>189</v>
       </c>
       <c r="C63" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D63" t="s">
         <v>190</v>
       </c>
       <c r="E63" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="45">
@@ -4032,13 +4033,13 @@
         <v>192</v>
       </c>
       <c r="C64" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="D64" t="s">
         <v>193</v>
       </c>
       <c r="E64" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="60">
@@ -4049,13 +4050,13 @@
         <v>195</v>
       </c>
       <c r="C65" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="D65" t="s">
         <v>196</v>
       </c>
       <c r="E65" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="45">
@@ -4066,13 +4067,13 @@
         <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="D66" t="s">
         <v>199</v>
       </c>
       <c r="E66" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45">
@@ -4083,13 +4084,13 @@
         <v>201</v>
       </c>
       <c r="C67" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="D67" t="s">
         <v>202</v>
       </c>
       <c r="E67" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="45">
@@ -4100,13 +4101,13 @@
         <v>204</v>
       </c>
       <c r="C68" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="D68" t="s">
         <v>205</v>
       </c>
       <c r="E68" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45">
@@ -4117,13 +4118,13 @@
         <v>207</v>
       </c>
       <c r="C69" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="D69" t="s">
         <v>208</v>
       </c>
       <c r="E69" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45">
@@ -4134,13 +4135,13 @@
         <v>210</v>
       </c>
       <c r="C70" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D70" t="s">
         <v>211</v>
       </c>
       <c r="E70" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45">
@@ -4151,13 +4152,13 @@
         <v>213</v>
       </c>
       <c r="C71" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="D71" t="s">
         <v>214</v>
       </c>
       <c r="E71" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="45">
@@ -4168,13 +4169,13 @@
         <v>216</v>
       </c>
       <c r="C72" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="D72" t="s">
         <v>217</v>
       </c>
       <c r="E72" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="45">
@@ -4185,13 +4186,13 @@
         <v>219</v>
       </c>
       <c r="C73" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="D73" t="s">
         <v>220</v>
       </c>
       <c r="E73" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="45">
@@ -4202,13 +4203,13 @@
         <v>222</v>
       </c>
       <c r="C74" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="D74" t="s">
         <v>223</v>
       </c>
       <c r="E74" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="45">
@@ -4219,13 +4220,13 @@
         <v>225</v>
       </c>
       <c r="C75" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="D75" t="s">
         <v>226</v>
       </c>
       <c r="E75" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="45">
@@ -4236,13 +4237,13 @@
         <v>228</v>
       </c>
       <c r="C76" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D76" t="s">
         <v>229</v>
       </c>
       <c r="E76" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="45">
@@ -4253,13 +4254,13 @@
         <v>231</v>
       </c>
       <c r="C77" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="D77" t="s">
         <v>232</v>
       </c>
       <c r="E77" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="78" spans="1:5" ht="45">
@@ -4270,13 +4271,13 @@
         <v>234</v>
       </c>
       <c r="C78" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D78" t="s">
         <v>235</v>
       </c>
       <c r="E78" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="45">
@@ -4287,13 +4288,13 @@
         <v>237</v>
       </c>
       <c r="C79" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D79" t="s">
         <v>238</v>
       </c>
       <c r="E79" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="45">
@@ -4304,13 +4305,13 @@
         <v>240</v>
       </c>
       <c r="C80" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D80" t="s">
         <v>241</v>
       </c>
       <c r="E80" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="45">
@@ -4321,13 +4322,13 @@
         <v>243</v>
       </c>
       <c r="C81" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D81" t="s">
         <v>244</v>
       </c>
       <c r="E81" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="45">
@@ -4338,13 +4339,13 @@
         <v>246</v>
       </c>
       <c r="C82" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D82" t="s">
         <v>247</v>
       </c>
       <c r="E82" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="45">
@@ -4355,13 +4356,13 @@
         <v>249</v>
       </c>
       <c r="C83" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D83" t="s">
         <v>250</v>
       </c>
       <c r="E83" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="45">
@@ -4372,13 +4373,13 @@
         <v>252</v>
       </c>
       <c r="C84" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D84" t="s">
         <v>253</v>
       </c>
       <c r="E84" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="45">
@@ -4389,13 +4390,13 @@
         <v>255</v>
       </c>
       <c r="C85" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D85" t="s">
         <v>256</v>
       </c>
       <c r="E85" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="45">
@@ -4406,13 +4407,13 @@
         <v>258</v>
       </c>
       <c r="C86" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D86" t="s">
         <v>259</v>
       </c>
       <c r="E86" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="60">
@@ -4423,13 +4424,13 @@
         <v>261</v>
       </c>
       <c r="C87" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D87" t="s">
         <v>262</v>
       </c>
       <c r="E87" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="45">
@@ -4440,13 +4441,13 @@
         <v>264</v>
       </c>
       <c r="C88" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D88" t="s">
         <v>265</v>
       </c>
       <c r="E88" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="60">
@@ -4457,13 +4458,13 @@
         <v>267</v>
       </c>
       <c r="C89" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="D89" t="s">
         <v>268</v>
       </c>
       <c r="E89" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
     </row>
     <row r="90" spans="1:5" ht="45">
@@ -4474,13 +4475,13 @@
         <v>270</v>
       </c>
       <c r="C90" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="D90" t="s">
         <v>271</v>
       </c>
       <c r="E90" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="45">
@@ -4491,13 +4492,13 @@
         <v>273</v>
       </c>
       <c r="C91" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="D91" t="s">
         <v>274</v>
       </c>
       <c r="E91" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="45">
@@ -4508,13 +4509,13 @@
         <v>276</v>
       </c>
       <c r="C92" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="D92" t="s">
         <v>277</v>
       </c>
       <c r="E92" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="45">
@@ -4525,13 +4526,13 @@
         <v>279</v>
       </c>
       <c r="C93" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="D93" t="s">
         <v>280</v>
       </c>
       <c r="E93" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="45">
@@ -4542,13 +4543,13 @@
         <v>282</v>
       </c>
       <c r="C94" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="D94" t="s">
         <v>283</v>
       </c>
       <c r="E94" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="60">
@@ -4559,13 +4560,13 @@
         <v>285</v>
       </c>
       <c r="C95" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="D95" t="s">
         <v>286</v>
       </c>
       <c r="E95" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
     </row>
     <row r="96" spans="1:5" ht="45">
@@ -4576,13 +4577,13 @@
         <v>288</v>
       </c>
       <c r="C96" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="D96" t="s">
         <v>289</v>
       </c>
       <c r="E96" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="45">
@@ -4593,13 +4594,13 @@
         <v>291</v>
       </c>
       <c r="C97" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="D97" t="s">
         <v>292</v>
       </c>
       <c r="E97" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="45">
@@ -4610,13 +4611,13 @@
         <v>294</v>
       </c>
       <c r="C98" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="D98" t="s">
         <v>295</v>
       </c>
       <c r="E98" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="45">
@@ -4627,13 +4628,13 @@
         <v>297</v>
       </c>
       <c r="C99" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="D99" t="s">
         <v>298</v>
       </c>
       <c r="E99" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="45">
@@ -4644,13 +4645,13 @@
         <v>300</v>
       </c>
       <c r="C100" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="D100" t="s">
         <v>301</v>
       </c>
       <c r="E100" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="60">
@@ -4661,13 +4662,13 @@
         <v>303</v>
       </c>
       <c r="C101" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="D101" t="s">
         <v>304</v>
       </c>
       <c r="E101" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45">
@@ -4678,13 +4679,13 @@
         <v>306</v>
       </c>
       <c r="C102" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="D102" t="s">
         <v>307</v>
       </c>
       <c r="E102" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="45">
@@ -4695,13 +4696,13 @@
         <v>309</v>
       </c>
       <c r="C103" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="D103" t="s">
         <v>310</v>
       </c>
       <c r="E103" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="45">
@@ -4712,13 +4713,13 @@
         <v>312</v>
       </c>
       <c r="C104" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="D104" t="s">
         <v>313</v>
       </c>
       <c r="E104" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="45">
@@ -4729,13 +4730,13 @@
         <v>315</v>
       </c>
       <c r="C105" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="D105" t="s">
         <v>316</v>
       </c>
       <c r="E105" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="45">
@@ -4746,13 +4747,13 @@
         <v>318</v>
       </c>
       <c r="C106" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="D106" t="s">
         <v>319</v>
       </c>
       <c r="E106" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="45">
@@ -4763,13 +4764,13 @@
         <v>321</v>
       </c>
       <c r="C107" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D107" t="s">
         <v>322</v>
       </c>
       <c r="E107" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="45">
@@ -4780,13 +4781,13 @@
         <v>324</v>
       </c>
       <c r="C108" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="D108" t="s">
         <v>325</v>
       </c>
       <c r="E108" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="60">
@@ -4797,13 +4798,13 @@
         <v>327</v>
       </c>
       <c r="C109" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="D109" t="s">
         <v>328</v>
       </c>
       <c r="E109" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="45">
@@ -4814,13 +4815,13 @@
         <v>330</v>
       </c>
       <c r="C110" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="D110" t="s">
         <v>331</v>
       </c>
       <c r="E110" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="45">
@@ -4831,13 +4832,13 @@
         <v>333</v>
       </c>
       <c r="C111" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="D111" t="s">
         <v>334</v>
       </c>
       <c r="E111" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="112" spans="1:5" ht="45">
@@ -4848,13 +4849,13 @@
         <v>336</v>
       </c>
       <c r="C112" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="D112" t="s">
         <v>337</v>
       </c>
       <c r="E112" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="45">
@@ -4865,13 +4866,13 @@
         <v>339</v>
       </c>
       <c r="C113" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="D113" t="s">
         <v>340</v>
       </c>
       <c r="E113" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="45">
@@ -4882,13 +4883,13 @@
         <v>342</v>
       </c>
       <c r="C114" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="D114" t="s">
         <v>343</v>
       </c>
       <c r="E114" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="45">
@@ -4899,13 +4900,13 @@
         <v>345</v>
       </c>
       <c r="C115" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="D115" t="s">
         <v>346</v>
       </c>
       <c r="E115" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="45">
@@ -4916,13 +4917,13 @@
         <v>348</v>
       </c>
       <c r="C116" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="D116" t="s">
         <v>349</v>
       </c>
       <c r="E116" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="45">
@@ -4933,13 +4934,13 @@
         <v>351</v>
       </c>
       <c r="C117" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="D117" t="s">
         <v>352</v>
       </c>
       <c r="E117" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="60">
@@ -4950,13 +4951,13 @@
         <v>354</v>
       </c>
       <c r="C118" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="D118" t="s">
         <v>355</v>
       </c>
       <c r="E118" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="45">
@@ -4967,13 +4968,13 @@
         <v>357</v>
       </c>
       <c r="C119" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="D119" t="s">
         <v>358</v>
       </c>
       <c r="E119" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="45">
@@ -4984,13 +4985,13 @@
         <v>360</v>
       </c>
       <c r="C120" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="D120" t="s">
         <v>361</v>
       </c>
       <c r="E120" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="45">
@@ -5001,13 +5002,13 @@
         <v>363</v>
       </c>
       <c r="C121" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="D121" t="s">
         <v>364</v>
       </c>
       <c r="E121" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="45">
@@ -5018,13 +5019,13 @@
         <v>366</v>
       </c>
       <c r="C122" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="D122" t="s">
         <v>367</v>
       </c>
       <c r="E122" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="60">
@@ -5035,13 +5036,13 @@
         <v>369</v>
       </c>
       <c r="C123" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="D123" t="s">
         <v>370</v>
       </c>
       <c r="E123" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
     </row>
     <row r="124" spans="1:5" ht="45">
@@ -5052,13 +5053,13 @@
         <v>372</v>
       </c>
       <c r="C124" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="D124" t="s">
         <v>373</v>
       </c>
       <c r="E124" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
     </row>
     <row r="125" spans="1:5" ht="45">
@@ -5069,13 +5070,13 @@
         <v>375</v>
       </c>
       <c r="C125" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="D125" t="s">
         <v>376</v>
       </c>
       <c r="E125" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="45">
@@ -5086,13 +5087,13 @@
         <v>378</v>
       </c>
       <c r="C126" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="D126" t="s">
         <v>379</v>
       </c>
       <c r="E126" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="127" spans="1:5" ht="45">
@@ -5103,13 +5104,13 @@
         <v>381</v>
       </c>
       <c r="C127" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="D127" t="s">
         <v>382</v>
       </c>
       <c r="E127" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
     </row>
     <row r="128" spans="1:5" ht="45">
@@ -5120,13 +5121,13 @@
         <v>384</v>
       </c>
       <c r="C128" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="D128" t="s">
         <v>385</v>
       </c>
       <c r="E128" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="45">
@@ -5137,13 +5138,13 @@
         <v>387</v>
       </c>
       <c r="C129" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="D129" t="s">
         <v>388</v>
       </c>
       <c r="E129" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
     </row>
     <row r="130" spans="1:5" ht="45">
@@ -5154,13 +5155,13 @@
         <v>390</v>
       </c>
       <c r="C130" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="D130" t="s">
         <v>391</v>
       </c>
       <c r="E130" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
     </row>
     <row r="131" spans="1:5" ht="45">
@@ -5171,13 +5172,13 @@
         <v>393</v>
       </c>
       <c r="C131" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="D131" t="s">
         <v>394</v>
       </c>
       <c r="E131" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
     </row>
     <row r="132" spans="1:5" ht="45">
@@ -5188,13 +5189,13 @@
         <v>396</v>
       </c>
       <c r="C132" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="D132" t="s">
         <v>397</v>
       </c>
       <c r="E132" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
     </row>
     <row r="133" spans="1:5" ht="120">
@@ -5205,13 +5206,13 @@
         <v>398</v>
       </c>
       <c r="C133" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="D133" s="4" t="s">
         <v>399</v>
       </c>
       <c r="E133" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="120">
@@ -5222,13 +5223,13 @@
         <v>401</v>
       </c>
       <c r="C134" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="D134" s="4" t="s">
         <v>399</v>
       </c>
       <c r="E134" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="135" spans="1:5" ht="120">
@@ -5239,13 +5240,13 @@
         <v>402</v>
       </c>
       <c r="C135" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="D135" s="4" t="s">
         <v>399</v>
       </c>
       <c r="E135" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
     </row>
     <row r="136" spans="1:5" ht="120">
@@ -5256,13 +5257,13 @@
         <v>404</v>
       </c>
       <c r="C136" t="s">
-        <v>648</v>
+        <v>517</v>
       </c>
       <c r="D136" s="4" t="s">
         <v>405</v>
       </c>
       <c r="E136" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="120">
@@ -5273,13 +5274,13 @@
         <v>407</v>
       </c>
       <c r="C137" t="s">
-        <v>649</v>
+        <v>518</v>
       </c>
       <c r="D137" s="4" t="s">
         <v>408</v>
       </c>
       <c r="E137" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
     </row>
     <row r="138" spans="1:5" ht="120">
@@ -5290,13 +5291,13 @@
         <v>410</v>
       </c>
       <c r="C138" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="D138" s="4" t="s">
         <v>411</v>
       </c>
       <c r="E138" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="45">
@@ -5307,13 +5308,13 @@
         <v>228</v>
       </c>
       <c r="C139" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="D139" t="s">
         <v>413</v>
       </c>
       <c r="E139" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="60">
@@ -5324,13 +5325,13 @@
         <v>415</v>
       </c>
       <c r="C140" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D140" t="s">
         <v>416</v>
       </c>
       <c r="E140" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="60">
@@ -5341,13 +5342,13 @@
         <v>418</v>
       </c>
       <c r="C141" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D141" t="s">
         <v>419</v>
       </c>
       <c r="E141" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="60">
@@ -5358,13 +5359,13 @@
         <v>421</v>
       </c>
       <c r="C142" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D142" t="s">
         <v>422</v>
       </c>
       <c r="E142" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="45">
@@ -5375,13 +5376,13 @@
         <v>234</v>
       </c>
       <c r="C143" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D143" t="s">
         <v>424</v>
       </c>
       <c r="E143" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
     </row>
     <row r="144" spans="1:5" ht="60">
@@ -5392,13 +5393,13 @@
         <v>426</v>
       </c>
       <c r="C144" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D144" t="s">
         <v>427</v>
       </c>
       <c r="E144" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="145" spans="1:5" ht="45">
@@ -5409,13 +5410,13 @@
         <v>429</v>
       </c>
       <c r="C145" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D145" t="s">
         <v>430</v>
       </c>
       <c r="E145" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="60">
@@ -5426,13 +5427,13 @@
         <v>432</v>
       </c>
       <c r="C146" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D146" t="s">
         <v>433</v>
       </c>
       <c r="E146" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="147" spans="1:5" ht="60">
@@ -5443,13 +5444,13 @@
         <v>435</v>
       </c>
       <c r="C147" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D147" t="s">
         <v>436</v>
       </c>
       <c r="E147" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="148" spans="1:5" ht="60">
@@ -5460,13 +5461,13 @@
         <v>438</v>
       </c>
       <c r="C148" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="D148" t="s">
         <v>439</v>
       </c>
       <c r="E148" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="149" spans="1:5" ht="60">
@@ -5477,13 +5478,13 @@
         <v>441</v>
       </c>
       <c r="C149" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="D149" t="s">
         <v>442</v>
       </c>
       <c r="E149" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="150" spans="1:5" ht="60">
@@ -5494,13 +5495,13 @@
         <v>444</v>
       </c>
       <c r="C150" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="D150" t="s">
         <v>445</v>
       </c>
       <c r="E150" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="151" spans="1:5" ht="45">
@@ -5511,13 +5512,13 @@
         <v>447</v>
       </c>
       <c r="C151" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="D151" t="s">
         <v>448</v>
       </c>
       <c r="E151" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="60">
@@ -5528,13 +5529,13 @@
         <v>450</v>
       </c>
       <c r="C152" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="D152" t="s">
         <v>451</v>
       </c>
       <c r="E152" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="153" spans="1:5" ht="60">
@@ -5545,13 +5546,13 @@
         <v>453</v>
       </c>
       <c r="C153" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="D153" t="s">
         <v>454</v>
       </c>
       <c r="E153" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="154" spans="1:5" ht="60">
@@ -5562,13 +5563,13 @@
         <v>456</v>
       </c>
       <c r="C154" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="D154" t="s">
         <v>457</v>
       </c>
       <c r="E154" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="155" spans="1:5" ht="60">
@@ -5579,13 +5580,13 @@
         <v>459</v>
       </c>
       <c r="C155" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="D155" t="s">
         <v>460</v>
       </c>
       <c r="E155" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
     </row>
     <row r="156" spans="1:5" ht="60">
@@ -5596,13 +5597,13 @@
         <v>462</v>
       </c>
       <c r="C156" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="D156" t="s">
         <v>463</v>
       </c>
       <c r="E156" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="157" spans="1:5" ht="60">
@@ -5613,13 +5614,13 @@
         <v>465</v>
       </c>
       <c r="C157" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="D157" t="s">
         <v>466</v>
       </c>
       <c r="E157" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="158" spans="1:5" ht="60">
@@ -5630,13 +5631,13 @@
         <v>468</v>
       </c>
       <c r="C158" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="D158" t="s">
         <v>469</v>
       </c>
       <c r="E158" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="159" spans="1:5" ht="60">
@@ -5647,13 +5648,13 @@
         <v>471</v>
       </c>
       <c r="C159" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="D159" t="s">
         <v>472</v>
       </c>
       <c r="E159" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="60">
@@ -5664,13 +5665,13 @@
         <v>474</v>
       </c>
       <c r="C160" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="D160" t="s">
         <v>475</v>
       </c>
       <c r="E160" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="60">
@@ -5681,13 +5682,13 @@
         <v>477</v>
       </c>
       <c r="C161" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="D161" t="s">
         <v>478</v>
       </c>
       <c r="E161" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="60">
@@ -5698,13 +5699,13 @@
         <v>480</v>
       </c>
       <c r="C162" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="D162" t="s">
         <v>481</v>
       </c>
       <c r="E162" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="60">
@@ -5715,13 +5716,13 @@
         <v>483</v>
       </c>
       <c r="C163" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="D163" t="s">
         <v>484</v>
       </c>
       <c r="E163" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="60">
@@ -5732,13 +5733,13 @@
         <v>486</v>
       </c>
       <c r="C164" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="D164" t="s">
         <v>487</v>
       </c>
       <c r="E164" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="60">
@@ -5749,13 +5750,13 @@
         <v>489</v>
       </c>
       <c r="C165" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="D165" t="s">
         <v>490</v>
       </c>
       <c r="E165" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="166" spans="1:5" ht="60">
@@ -5766,13 +5767,13 @@
         <v>492</v>
       </c>
       <c r="C166" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="D166" t="s">
         <v>493</v>
       </c>
       <c r="E166" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="167" spans="1:5" ht="60">
@@ -5783,13 +5784,13 @@
         <v>495</v>
       </c>
       <c r="C167" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="D167" t="s">
         <v>496</v>
       </c>
       <c r="E167" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
     </row>
     <row r="168" spans="1:5" ht="60">
@@ -5800,13 +5801,13 @@
         <v>498</v>
       </c>
       <c r="C168" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D168" t="s">
         <v>499</v>
       </c>
       <c r="E168" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="169" spans="1:5" ht="60">
@@ -5817,13 +5818,13 @@
         <v>255</v>
       </c>
       <c r="C169" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D169" t="s">
         <v>501</v>
       </c>
       <c r="E169" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="170" spans="1:5" ht="60">
@@ -5834,13 +5835,13 @@
         <v>258</v>
       </c>
       <c r="C170" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D170" t="s">
         <v>503</v>
       </c>
       <c r="E170" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="60">
@@ -5851,13 +5852,13 @@
         <v>505</v>
       </c>
       <c r="C171" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="D171" t="s">
         <v>506</v>
       </c>
       <c r="E171" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="172" spans="1:5" ht="60">
@@ -5868,13 +5869,13 @@
         <v>264</v>
       </c>
       <c r="C172" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="D172" t="s">
         <v>508</v>
       </c>
       <c r="E172" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="60">
@@ -5885,13 +5886,13 @@
         <v>510</v>
       </c>
       <c r="C173" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="D173" t="s">
         <v>511</v>
       </c>
       <c r="E173" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="60">
@@ -5902,13 +5903,13 @@
         <v>513</v>
       </c>
       <c r="C174" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="D174" t="s">
         <v>514</v>
       </c>
       <c r="E174" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
   </sheetData>
